--- a/LF/TAS/Nigeria/2024/june_2024/Jigawa/ng_lf_tas_2406_1_sit_part_jgw.xlsx
+++ b/LF/TAS/Nigeria/2024/june_2024/Jigawa/ng_lf_tas_2406_1_sit_part_jgw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\Jigawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3369DA-1B78-493C-A4D1-C8C303514AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99883CED-BF57-42C6-9F19-062CC756A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="733">
   <si>
     <t>type</t>
   </si>
@@ -2132,12 +2132,6 @@
     <t>MADARASATUL DARUL QURAN AL ALAMIYYA DAKAIYAWA    </t>
   </si>
   <si>
-    <t>ng_lf_tas_2406_1_sit_part_jgw_v2</t>
-  </si>
-  <si>
-    <t>ng_tas_p_2406_jgw_2</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -2183,36 +2177,6 @@
     <t>25</t>
   </si>
   <si>
-    <t>Have you ever swallowed LF medicines (Y/N)?</t>
-  </si>
-  <si>
-    <t>If Yes, how many times taken?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you have mosquito net? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you sleep inside mosquito net? </t>
-  </si>
-  <si>
-    <t>p_swallowed_lf_med</t>
-  </si>
-  <si>
-    <t>have_mosquito_net</t>
-  </si>
-  <si>
-    <t>${p_swallowed_lf_med} = 'Yes'</t>
-  </si>
-  <si>
-    <t>${have_mosquito_net} = 'Yes'</t>
-  </si>
-  <si>
-    <t>p_how_many_time_swallowed</t>
-  </si>
-  <si>
-    <t>sleep_mosquito_net</t>
-  </si>
-  <si>
     <t>Name of Head Teacher</t>
   </si>
   <si>
@@ -2246,16 +2210,31 @@
     <t xml:space="preserve">Do you have clean water in this School?  </t>
   </si>
   <si>
-    <t>c_clean_toilet</t>
-  </si>
-  <si>
     <t xml:space="preserve">What is the source of water in this School? </t>
   </si>
   <si>
     <t>c_src_water_school</t>
   </si>
   <si>
-    <t>(June 2024) - 1. Jigawa - TAS1 LF Site &amp; participant Form V2</t>
+    <t>ng_lf_tas_2406_1_sit_part_jgw_v3</t>
+  </si>
+  <si>
+    <t>ng_tas_p_2406_jgw_3</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>${c_toilet} = 'Yes'</t>
+  </si>
+  <si>
+    <t>c_has_water</t>
+  </si>
+  <si>
+    <t>${c_has_water} = 'Yes'</t>
+  </si>
+  <si>
+    <t>(June 2024) Jigawa - 1. TAS1 LF Site &amp; participant Form V3</t>
   </si>
 </sst>
 </file>
@@ -2908,13 +2887,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30:XFD33"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3205,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3228,7 +3207,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="D12" s="5"/>
       <c r="J12" s="5" t="s">
@@ -3240,14 +3219,17 @@
         <v>13</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
         <v>17</v>
@@ -3261,14 +3243,17 @@
         <v>24</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
         <v>17</v>
@@ -3282,14 +3267,17 @@
         <v>26</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
         <v>17</v>
@@ -3303,14 +3291,17 @@
         <v>24</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="G16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>729</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
         <v>17</v>
@@ -3324,14 +3315,17 @@
         <v>26</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="G17" s="5"/>
+      <c r="H17" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
         <v>17</v>
@@ -3345,14 +3339,17 @@
         <v>24</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="G18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>731</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
         <v>17</v>
@@ -3424,7 +3421,7 @@
         <v>78</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>79</v>
@@ -3612,157 +3609,97 @@
     </row>
     <row r="30" spans="1:15" s="4" customFormat="1">
       <c r="A30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="59" t="s">
-        <v>719</v>
+        <v>33</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>715</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:15" s="4" customFormat="1" ht="31.5">
+    <row r="31" spans="1:15" s="4" customFormat="1">
       <c r="A31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="59" t="s">
-        <v>723</v>
+        <v>36</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>716</v>
+        <v>104</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>720</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" s="4" customFormat="1" ht="31.5">
+      <c r="F31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1">
       <c r="A33" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="59" t="s">
-        <v>724</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>718</v>
+        <v>35</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>722</v>
+      <c r="H33" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:13" s="4" customFormat="1">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="H34" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" s="5"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="F35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="4" customFormat="1">
-      <c r="A37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="H37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" spans="1:13" s="4" customFormat="1">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="5" t="s">
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" s="4" customFormat="1">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="5"/>
+      <c r="D36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3772,11 +3709,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F496"/>
+  <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A26"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3922,10 +3859,10 @@
         <v>68</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1">
@@ -3933,10 +3870,10 @@
         <v>68</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1">
@@ -3944,10 +3881,10 @@
         <v>68</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1">
@@ -3955,10 +3892,10 @@
         <v>68</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1">
@@ -3966,10 +3903,10 @@
         <v>68</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1">
@@ -3977,10 +3914,10 @@
         <v>68</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1">
@@ -3988,10 +3925,10 @@
         <v>68</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1">
@@ -3999,10 +3936,10 @@
         <v>68</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1">
@@ -4010,10 +3947,10 @@
         <v>68</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1">
@@ -4021,10 +3958,10 @@
         <v>68</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1">
@@ -4032,10 +3969,10 @@
         <v>68</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1">
@@ -4043,10 +3980,10 @@
         <v>68</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1">
@@ -4054,10 +3991,10 @@
         <v>68</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1">
@@ -4065,10 +4002,10 @@
         <v>68</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1">
@@ -4076,10 +4013,10 @@
         <v>68</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1">
@@ -6473,7 +6410,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:5">
       <c r="A209" s="3" t="s">
         <v>150</v>
       </c>
@@ -6487,7 +6424,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:5">
       <c r="A210" s="3" t="s">
         <v>150</v>
       </c>
@@ -6501,7 +6438,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:5">
       <c r="A211" s="3" t="s">
         <v>150</v>
       </c>
@@ -6515,7 +6452,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:5">
       <c r="A212" s="3" t="s">
         <v>150</v>
       </c>
@@ -6529,7 +6466,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:5">
       <c r="A213" s="3" t="s">
         <v>150</v>
       </c>
@@ -6543,7 +6480,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:5">
       <c r="A214" s="3" t="s">
         <v>150</v>
       </c>
@@ -6557,7 +6494,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:5">
       <c r="A215" s="3" t="s">
         <v>150</v>
       </c>
@@ -6571,7 +6508,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:5">
       <c r="A216" s="3" t="s">
         <v>150</v>
       </c>
@@ -6585,7 +6522,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:5">
       <c r="A217" s="3" t="s">
         <v>150</v>
       </c>
@@ -6599,7 +6536,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:5">
       <c r="A218" s="3" t="s">
         <v>150</v>
       </c>
@@ -6613,7 +6550,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:5">
       <c r="A219" s="3" t="s">
         <v>150</v>
       </c>
@@ -6627,7 +6564,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:5">
       <c r="A220" s="3" t="s">
         <v>150</v>
       </c>
@@ -6641,92 +6578,92 @@
         <v>689</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-    </row>
-    <row r="222" spans="1:6">
+    <row r="221" spans="1:5">
+      <c r="A221" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
       <c r="A222" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B222" s="4">
-        <v>101</v>
-      </c>
-      <c r="C222" s="4">
-        <v>101</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
       <c r="A223" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B223" s="4">
-        <v>102</v>
-      </c>
-      <c r="C223" s="4">
-        <v>102</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>150</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
       <c r="A224" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B224" s="4">
-        <v>103</v>
-      </c>
-      <c r="C224" s="4">
-        <v>103</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B225" s="4">
-        <v>104</v>
-      </c>
-      <c r="C225" s="4">
-        <v>104</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>693</v>
+        <v>150</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="226" spans="1:6">
-      <c r="A226" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B226" s="4">
-        <v>105</v>
-      </c>
-      <c r="C226" s="4">
-        <v>105</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B227" s="4">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C227" s="4">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6734,13 +6671,13 @@
         <v>151</v>
       </c>
       <c r="B228" s="4">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C228" s="4">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6748,13 +6685,13 @@
         <v>151</v>
       </c>
       <c r="B229" s="4">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C229" s="4">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6762,13 +6699,13 @@
         <v>151</v>
       </c>
       <c r="B230" s="4">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C230" s="4">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>203</v>
+        <v>693</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6776,13 +6713,13 @@
         <v>151</v>
       </c>
       <c r="B231" s="4">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C231" s="4">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6790,13 +6727,13 @@
         <v>151</v>
       </c>
       <c r="B232" s="4">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C232" s="4">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6804,13 +6741,13 @@
         <v>151</v>
       </c>
       <c r="B233" s="4">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C233" s="4">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6818,13 +6755,13 @@
         <v>151</v>
       </c>
       <c r="B234" s="4">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C234" s="4">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6832,13 +6769,13 @@
         <v>151</v>
       </c>
       <c r="B235" s="4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C235" s="4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6846,13 +6783,13 @@
         <v>151</v>
       </c>
       <c r="B236" s="4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C236" s="4">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6860,13 +6797,13 @@
         <v>151</v>
       </c>
       <c r="B237" s="4">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C237" s="4">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6874,13 +6811,13 @@
         <v>151</v>
       </c>
       <c r="B238" s="4">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C238" s="4">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6888,13 +6825,13 @@
         <v>151</v>
       </c>
       <c r="B239" s="4">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C239" s="4">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6902,13 +6839,13 @@
         <v>151</v>
       </c>
       <c r="B240" s="4">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C240" s="4">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6916,13 +6853,13 @@
         <v>151</v>
       </c>
       <c r="B241" s="4">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C241" s="4">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6930,13 +6867,13 @@
         <v>151</v>
       </c>
       <c r="B242" s="4">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C242" s="4">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6944,83 +6881,83 @@
         <v>151</v>
       </c>
       <c r="B243" s="4">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C243" s="4">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B244" s="3">
-        <v>123</v>
-      </c>
-      <c r="C244" s="3">
-        <v>123</v>
+      <c r="B244" s="4">
+        <v>118</v>
+      </c>
+      <c r="C244" s="4">
+        <v>118</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B245" s="3">
-        <v>124</v>
-      </c>
-      <c r="C245" s="3">
-        <v>124</v>
+      <c r="B245" s="4">
+        <v>119</v>
+      </c>
+      <c r="C245" s="4">
+        <v>119</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B246" s="3">
-        <v>125</v>
-      </c>
-      <c r="C246" s="3">
-        <v>125</v>
+      <c r="B246" s="4">
+        <v>120</v>
+      </c>
+      <c r="C246" s="4">
+        <v>120</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B247" s="3">
-        <v>126</v>
-      </c>
-      <c r="C247" s="3">
-        <v>126</v>
+      <c r="B247" s="4">
+        <v>121</v>
+      </c>
+      <c r="C247" s="4">
+        <v>121</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B248" s="3">
-        <v>127</v>
-      </c>
-      <c r="C248" s="3">
-        <v>127</v>
+      <c r="B248" s="4">
+        <v>122</v>
+      </c>
+      <c r="C248" s="4">
+        <v>122</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7028,13 +6965,13 @@
         <v>151</v>
       </c>
       <c r="B249" s="3">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C249" s="3">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -7042,13 +6979,13 @@
         <v>151</v>
       </c>
       <c r="B250" s="3">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C250" s="3">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -7056,13 +6993,13 @@
         <v>151</v>
       </c>
       <c r="B251" s="3">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C251" s="3">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -7070,13 +7007,13 @@
         <v>151</v>
       </c>
       <c r="B252" s="3">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C252" s="3">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -7084,13 +7021,13 @@
         <v>151</v>
       </c>
       <c r="B253" s="3">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C253" s="3">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -7098,13 +7035,13 @@
         <v>151</v>
       </c>
       <c r="B254" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C254" s="3">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7112,13 +7049,13 @@
         <v>151</v>
       </c>
       <c r="B255" s="3">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C255" s="3">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -7126,13 +7063,13 @@
         <v>151</v>
       </c>
       <c r="B256" s="3">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C256" s="3">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7140,13 +7077,13 @@
         <v>151</v>
       </c>
       <c r="B257" s="3">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C257" s="3">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7154,13 +7091,13 @@
         <v>151</v>
       </c>
       <c r="B258" s="3">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C258" s="3">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7168,13 +7105,13 @@
         <v>151</v>
       </c>
       <c r="B259" s="3">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C259" s="3">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7182,13 +7119,13 @@
         <v>151</v>
       </c>
       <c r="B260" s="3">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C260" s="3">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7196,13 +7133,13 @@
         <v>151</v>
       </c>
       <c r="B261" s="3">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C261" s="3">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7210,13 +7147,13 @@
         <v>151</v>
       </c>
       <c r="B262" s="3">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C262" s="3">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7224,13 +7161,13 @@
         <v>151</v>
       </c>
       <c r="B263" s="3">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C263" s="3">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>695</v>
+        <v>317</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7238,13 +7175,13 @@
         <v>151</v>
       </c>
       <c r="B264" s="3">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C264" s="3">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7252,13 +7189,13 @@
         <v>151</v>
       </c>
       <c r="B265" s="3">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C265" s="3">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7266,13 +7203,13 @@
         <v>151</v>
       </c>
       <c r="B266" s="3">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C266" s="3">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7280,13 +7217,13 @@
         <v>151</v>
       </c>
       <c r="B267" s="3">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C267" s="3">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7294,13 +7231,13 @@
         <v>151</v>
       </c>
       <c r="B268" s="3">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C268" s="3">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>354</v>
+        <v>695</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7308,13 +7245,13 @@
         <v>151</v>
       </c>
       <c r="B269" s="3">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C269" s="3">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7322,13 +7259,13 @@
         <v>151</v>
       </c>
       <c r="B270" s="3">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C270" s="3">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7336,13 +7273,13 @@
         <v>151</v>
       </c>
       <c r="B271" s="3">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C271" s="3">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7350,13 +7287,13 @@
         <v>151</v>
       </c>
       <c r="B272" s="3">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C272" s="3">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7364,13 +7301,13 @@
         <v>151</v>
       </c>
       <c r="B273" s="3">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C273" s="3">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7378,13 +7315,13 @@
         <v>151</v>
       </c>
       <c r="B274" s="3">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C274" s="3">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7392,13 +7329,13 @@
         <v>151</v>
       </c>
       <c r="B275" s="3">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C275" s="3">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7406,13 +7343,13 @@
         <v>151</v>
       </c>
       <c r="B276" s="3">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C276" s="3">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -7420,13 +7357,13 @@
         <v>151</v>
       </c>
       <c r="B277" s="3">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C277" s="3">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -7434,13 +7371,13 @@
         <v>151</v>
       </c>
       <c r="B278" s="3">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C278" s="3">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -7448,13 +7385,13 @@
         <v>151</v>
       </c>
       <c r="B279" s="3">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C279" s="3">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7462,13 +7399,13 @@
         <v>151</v>
       </c>
       <c r="B280" s="3">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C280" s="3">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7476,13 +7413,13 @@
         <v>151</v>
       </c>
       <c r="B281" s="3">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C281" s="3">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7490,13 +7427,13 @@
         <v>151</v>
       </c>
       <c r="B282" s="3">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C282" s="3">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7504,13 +7441,13 @@
         <v>151</v>
       </c>
       <c r="B283" s="3">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C283" s="3">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7518,13 +7455,13 @@
         <v>151</v>
       </c>
       <c r="B284" s="3">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C284" s="3">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7532,13 +7469,13 @@
         <v>151</v>
       </c>
       <c r="B285" s="3">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C285" s="3">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7546,13 +7483,13 @@
         <v>151</v>
       </c>
       <c r="B286" s="3">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C286" s="3">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7560,13 +7497,13 @@
         <v>151</v>
       </c>
       <c r="B287" s="3">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C287" s="3">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7574,13 +7511,13 @@
         <v>151</v>
       </c>
       <c r="B288" s="3">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C288" s="3">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7588,13 +7525,13 @@
         <v>151</v>
       </c>
       <c r="B289" s="3">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C289" s="3">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7602,13 +7539,13 @@
         <v>151</v>
       </c>
       <c r="B290" s="3">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C290" s="3">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7616,13 +7553,13 @@
         <v>151</v>
       </c>
       <c r="B291" s="3">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C291" s="3">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7630,13 +7567,13 @@
         <v>151</v>
       </c>
       <c r="B292" s="3">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C292" s="3">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7644,13 +7581,13 @@
         <v>151</v>
       </c>
       <c r="B293" s="3">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C293" s="3">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7658,13 +7595,13 @@
         <v>151</v>
       </c>
       <c r="B294" s="3">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C294" s="3">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7672,13 +7609,13 @@
         <v>151</v>
       </c>
       <c r="B295" s="3">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C295" s="3">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7686,13 +7623,13 @@
         <v>151</v>
       </c>
       <c r="B296" s="3">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C296" s="3">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7700,13 +7637,13 @@
         <v>151</v>
       </c>
       <c r="B297" s="3">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C297" s="3">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>696</v>
+        <v>456</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7714,13 +7651,13 @@
         <v>151</v>
       </c>
       <c r="B298" s="3">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C298" s="3">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7728,13 +7665,13 @@
         <v>151</v>
       </c>
       <c r="B299" s="3">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C299" s="3">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7742,13 +7679,13 @@
         <v>151</v>
       </c>
       <c r="B300" s="3">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C300" s="3">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7756,13 +7693,13 @@
         <v>151</v>
       </c>
       <c r="B301" s="3">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C301" s="3">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7770,13 +7707,13 @@
         <v>151</v>
       </c>
       <c r="B302" s="3">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C302" s="3">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>486</v>
+        <v>696</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7784,13 +7721,13 @@
         <v>151</v>
       </c>
       <c r="B303" s="3">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C303" s="3">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7798,13 +7735,13 @@
         <v>151</v>
       </c>
       <c r="B304" s="3">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C304" s="3">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7812,13 +7749,13 @@
         <v>151</v>
       </c>
       <c r="B305" s="3">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C305" s="3">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7826,13 +7763,13 @@
         <v>151</v>
       </c>
       <c r="B306" s="3">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C306" s="3">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>697</v>
+        <v>483</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7840,13 +7777,13 @@
         <v>151</v>
       </c>
       <c r="B307" s="3">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C307" s="3">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7854,13 +7791,13 @@
         <v>151</v>
       </c>
       <c r="B308" s="3">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C308" s="3">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7868,13 +7805,13 @@
         <v>151</v>
       </c>
       <c r="B309" s="3">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C309" s="3">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7882,13 +7819,13 @@
         <v>151</v>
       </c>
       <c r="B310" s="3">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C310" s="3">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7896,13 +7833,13 @@
         <v>151</v>
       </c>
       <c r="B311" s="3">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C311" s="3">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>511</v>
+        <v>697</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7910,13 +7847,13 @@
         <v>151</v>
       </c>
       <c r="B312" s="3">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C312" s="3">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7924,13 +7861,13 @@
         <v>151</v>
       </c>
       <c r="B313" s="3">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C313" s="3">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7938,13 +7875,13 @@
         <v>151</v>
       </c>
       <c r="B314" s="3">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C314" s="3">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7952,13 +7889,13 @@
         <v>151</v>
       </c>
       <c r="B315" s="3">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C315" s="3">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7966,13 +7903,13 @@
         <v>151</v>
       </c>
       <c r="B316" s="3">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C316" s="3">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7980,13 +7917,13 @@
         <v>151</v>
       </c>
       <c r="B317" s="3">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C317" s="3">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7994,13 +7931,13 @@
         <v>151</v>
       </c>
       <c r="B318" s="3">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C318" s="3">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8008,13 +7945,13 @@
         <v>151</v>
       </c>
       <c r="B319" s="3">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C319" s="3">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8022,13 +7959,13 @@
         <v>151</v>
       </c>
       <c r="B320" s="3">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C320" s="3">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -8036,13 +7973,13 @@
         <v>151</v>
       </c>
       <c r="B321" s="3">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C321" s="3">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -8050,13 +7987,13 @@
         <v>151</v>
       </c>
       <c r="B322" s="3">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C322" s="3">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -8064,13 +8001,13 @@
         <v>151</v>
       </c>
       <c r="B323" s="3">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C323" s="3">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -8078,13 +8015,13 @@
         <v>151</v>
       </c>
       <c r="B324" s="3">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C324" s="3">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -8092,13 +8029,13 @@
         <v>151</v>
       </c>
       <c r="B325" s="3">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C325" s="3">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -8106,13 +8043,13 @@
         <v>151</v>
       </c>
       <c r="B326" s="3">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C326" s="3">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -8120,13 +8057,13 @@
         <v>151</v>
       </c>
       <c r="B327" s="3">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C327" s="3">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -8134,13 +8071,13 @@
         <v>151</v>
       </c>
       <c r="B328" s="3">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C328" s="3">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8148,13 +8085,13 @@
         <v>151</v>
       </c>
       <c r="B329" s="3">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C329" s="3">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -8162,13 +8099,13 @@
         <v>151</v>
       </c>
       <c r="B330" s="3">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C330" s="3">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8176,13 +8113,13 @@
         <v>151</v>
       </c>
       <c r="B331" s="3">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C331" s="3">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -8190,13 +8127,13 @@
         <v>151</v>
       </c>
       <c r="B332" s="3">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C332" s="3">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -8204,13 +8141,13 @@
         <v>151</v>
       </c>
       <c r="B333" s="3">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C333" s="3">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8218,13 +8155,13 @@
         <v>151</v>
       </c>
       <c r="B334" s="3">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C334" s="3">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -8232,13 +8169,13 @@
         <v>151</v>
       </c>
       <c r="B335" s="3">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C335" s="3">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -8246,13 +8183,13 @@
         <v>151</v>
       </c>
       <c r="B336" s="3">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C336" s="3">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8260,13 +8197,13 @@
         <v>151</v>
       </c>
       <c r="B337" s="3">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C337" s="3">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8274,13 +8211,13 @@
         <v>151</v>
       </c>
       <c r="B338" s="3">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C338" s="3">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -8288,13 +8225,13 @@
         <v>151</v>
       </c>
       <c r="B339" s="3">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C339" s="3">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -8302,13 +8239,13 @@
         <v>151</v>
       </c>
       <c r="B340" s="3">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C340" s="3">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8316,13 +8253,13 @@
         <v>151</v>
       </c>
       <c r="B341" s="3">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C341" s="3">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -8330,13 +8267,13 @@
         <v>151</v>
       </c>
       <c r="B342" s="3">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C342" s="3">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -8344,13 +8281,13 @@
         <v>151</v>
       </c>
       <c r="B343" s="3">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C343" s="3">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -8358,13 +8295,13 @@
         <v>151</v>
       </c>
       <c r="B344" s="3">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C344" s="3">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -8372,13 +8309,13 @@
         <v>151</v>
       </c>
       <c r="B345" s="3">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C345" s="3">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -8386,13 +8323,13 @@
         <v>151</v>
       </c>
       <c r="B346" s="3">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C346" s="3">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -8400,13 +8337,13 @@
         <v>151</v>
       </c>
       <c r="B347" s="3">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C347" s="3">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8414,13 +8351,13 @@
         <v>151</v>
       </c>
       <c r="B348" s="3">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C348" s="3">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8428,13 +8365,13 @@
         <v>151</v>
       </c>
       <c r="B349" s="3">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C349" s="3">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -8442,13 +8379,13 @@
         <v>151</v>
       </c>
       <c r="B350" s="3">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C350" s="3">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8456,13 +8393,13 @@
         <v>151</v>
       </c>
       <c r="B351" s="3">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C351" s="3">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8470,13 +8407,13 @@
         <v>151</v>
       </c>
       <c r="B352" s="3">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C352" s="3">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -8484,13 +8421,13 @@
         <v>151</v>
       </c>
       <c r="B353" s="3">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C353" s="3">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -8498,13 +8435,13 @@
         <v>151</v>
       </c>
       <c r="B354" s="3">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C354" s="3">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -8512,13 +8449,13 @@
         <v>151</v>
       </c>
       <c r="B355" s="3">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C355" s="3">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -8526,13 +8463,13 @@
         <v>151</v>
       </c>
       <c r="B356" s="3">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C356" s="3">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8540,13 +8477,13 @@
         <v>151</v>
       </c>
       <c r="B357" s="3">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C357" s="3">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8554,83 +8491,83 @@
         <v>151</v>
       </c>
       <c r="B358" s="3">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C358" s="3">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>685</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B359" s="3">
+        <v>233</v>
+      </c>
+      <c r="C359" s="3">
+        <v>233</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B360" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C360" s="32" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="B360" s="3">
+        <v>234</v>
+      </c>
+      <c r="C360" s="3">
+        <v>234</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>163</v>
+        <v>674</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B361" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C361" s="32" t="s">
-        <v>168</v>
+        <v>151</v>
+      </c>
+      <c r="B361" s="3">
+        <v>235</v>
+      </c>
+      <c r="C361" s="3">
+        <v>235</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>169</v>
+        <v>678</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B362" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C362" s="32" t="s">
-        <v>173</v>
+        <v>151</v>
+      </c>
+      <c r="B362" s="3">
+        <v>236</v>
+      </c>
+      <c r="C362" s="3">
+        <v>236</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>174</v>
+        <v>682</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B363" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C363" s="32" t="s">
-        <v>178</v>
+        <v>151</v>
+      </c>
+      <c r="B363" s="3">
+        <v>237</v>
+      </c>
+      <c r="C363" s="3">
+        <v>237</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
-      <c r="A364" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B364" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C364" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F364" s="3" t="s">
-        <v>183</v>
+        <v>685</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8638,13 +8575,13 @@
         <v>152</v>
       </c>
       <c r="B365" s="32" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C365" s="32" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -8652,13 +8589,13 @@
         <v>152</v>
       </c>
       <c r="B366" s="32" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C366" s="32" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -8666,13 +8603,13 @@
         <v>152</v>
       </c>
       <c r="B367" s="32" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C367" s="32" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -8680,13 +8617,13 @@
         <v>152</v>
       </c>
       <c r="B368" s="32" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C368" s="32" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>203</v>
+        <v>693</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -8694,13 +8631,13 @@
         <v>152</v>
       </c>
       <c r="B369" s="32" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C369" s="32" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8708,13 +8645,13 @@
         <v>152</v>
       </c>
       <c r="B370" s="32" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C370" s="32" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8722,13 +8659,13 @@
         <v>152</v>
       </c>
       <c r="B371" s="32" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C371" s="32" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8736,13 +8673,13 @@
         <v>152</v>
       </c>
       <c r="B372" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C372" s="32" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8750,13 +8687,13 @@
         <v>152</v>
       </c>
       <c r="B373" s="32" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C373" s="32" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8764,13 +8701,13 @@
         <v>152</v>
       </c>
       <c r="B374" s="32" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C374" s="32" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8778,13 +8715,13 @@
         <v>152</v>
       </c>
       <c r="B375" s="32" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C375" s="32" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8792,13 +8729,13 @@
         <v>152</v>
       </c>
       <c r="B376" s="32" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C376" s="32" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8806,13 +8743,13 @@
         <v>152</v>
       </c>
       <c r="B377" s="32" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="C377" s="32" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8820,83 +8757,83 @@
         <v>152</v>
       </c>
       <c r="B378" s="32" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C378" s="32" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="379" spans="1:6">
       <c r="A379" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B379" s="32">
-        <v>131</v>
-      </c>
-      <c r="C379" s="32">
-        <v>131</v>
+      <c r="B379" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C379" s="32" t="s">
+        <v>231</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B380" s="32">
-        <v>101</v>
-      </c>
-      <c r="C380" s="32">
-        <v>101</v>
+      <c r="B380" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C380" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B381" s="32">
-        <v>107</v>
-      </c>
-      <c r="C381" s="32">
-        <v>107</v>
+      <c r="B381" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C381" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B382" s="32">
-        <v>113</v>
-      </c>
-      <c r="C382" s="32">
-        <v>113</v>
+      <c r="B382" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C382" s="32" t="s">
+        <v>246</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B383" s="32">
-        <v>143</v>
-      </c>
-      <c r="C383" s="32">
-        <v>143</v>
+      <c r="B383" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C383" s="32" t="s">
+        <v>251</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8904,13 +8841,13 @@
         <v>152</v>
       </c>
       <c r="B384" s="32">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C384" s="32">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8918,13 +8855,13 @@
         <v>152</v>
       </c>
       <c r="B385" s="32">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C385" s="32">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8932,13 +8869,13 @@
         <v>152</v>
       </c>
       <c r="B386" s="32">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C386" s="32">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8946,13 +8883,13 @@
         <v>152</v>
       </c>
       <c r="B387" s="32">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C387" s="32">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8960,13 +8897,13 @@
         <v>152</v>
       </c>
       <c r="B388" s="32">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C388" s="32">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8974,13 +8911,13 @@
         <v>152</v>
       </c>
       <c r="B389" s="32">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C389" s="32">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8988,13 +8925,13 @@
         <v>152</v>
       </c>
       <c r="B390" s="32">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C390" s="32">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -9002,13 +8939,13 @@
         <v>152</v>
       </c>
       <c r="B391" s="32">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C391" s="32">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -9016,13 +8953,13 @@
         <v>152</v>
       </c>
       <c r="B392" s="32">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C392" s="32">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -9030,13 +8967,13 @@
         <v>152</v>
       </c>
       <c r="B393" s="32">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C393" s="32">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -9044,13 +8981,13 @@
         <v>152</v>
       </c>
       <c r="B394" s="32">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C394" s="32">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -9058,13 +8995,13 @@
         <v>152</v>
       </c>
       <c r="B395" s="32">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C395" s="32">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -9072,13 +9009,13 @@
         <v>152</v>
       </c>
       <c r="B396" s="32">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C396" s="32">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -9086,27 +9023,27 @@
         <v>152</v>
       </c>
       <c r="B397" s="32">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C397" s="32">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B398" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C398" s="32" t="s">
-        <v>323</v>
+      <c r="B398" s="32">
+        <v>102</v>
+      </c>
+      <c r="C398" s="32">
+        <v>102</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -9114,27 +9051,27 @@
         <v>152</v>
       </c>
       <c r="B399" s="32">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C399" s="32">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B400" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C400" s="32" t="s">
-        <v>330</v>
+      <c r="B400" s="32">
+        <v>149</v>
+      </c>
+      <c r="C400" s="32">
+        <v>149</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -9142,83 +9079,83 @@
         <v>152</v>
       </c>
       <c r="B401" s="32">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C401" s="32">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>695</v>
+        <v>317</v>
       </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B402" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="C402" s="32" t="s">
-        <v>336</v>
+      <c r="B402" s="32">
+        <v>112</v>
+      </c>
+      <c r="C402" s="32">
+        <v>112</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="403" spans="1:6">
       <c r="A403" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B403" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="C403" s="41" t="s">
-        <v>341</v>
+      <c r="B403" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C403" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="404" spans="1:6">
       <c r="A404" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B404" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="C404" s="41" t="s">
-        <v>346</v>
+      <c r="B404" s="32">
+        <v>178</v>
+      </c>
+      <c r="C404" s="32">
+        <v>178</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B405" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="C405" s="43" t="s">
-        <v>323</v>
+      <c r="B405" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C405" s="32" t="s">
+        <v>330</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B406" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="C406" s="32" t="s">
-        <v>353</v>
+      <c r="B406" s="32">
+        <v>173</v>
+      </c>
+      <c r="C406" s="32">
+        <v>173</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>354</v>
+        <v>695</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -9226,55 +9163,55 @@
         <v>152</v>
       </c>
       <c r="B407" s="32" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="C407" s="32" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B408" s="32" t="s">
-        <v>362</v>
-      </c>
-      <c r="C408" s="32" t="s">
-        <v>362</v>
+      <c r="B408" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C408" s="41" t="s">
+        <v>341</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B409" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C409" s="32" t="s">
-        <v>173</v>
+      <c r="B409" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="C409" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="410" spans="1:6">
       <c r="A410" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B410" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="C410" s="32" t="s">
-        <v>182</v>
+      <c r="B410" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C410" s="43" t="s">
+        <v>323</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -9282,13 +9219,13 @@
         <v>152</v>
       </c>
       <c r="B411" s="32" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="C411" s="32" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -9296,13 +9233,13 @@
         <v>152</v>
       </c>
       <c r="B412" s="32" t="s">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="C412" s="32" t="s">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -9310,13 +9247,13 @@
         <v>152</v>
       </c>
       <c r="B413" s="32" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C413" s="32" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -9324,13 +9261,13 @@
         <v>152</v>
       </c>
       <c r="B414" s="32" t="s">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="C414" s="32" t="s">
-        <v>346</v>
+        <v>173</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -9338,13 +9275,13 @@
         <v>152</v>
       </c>
       <c r="B415" s="32" t="s">
-        <v>392</v>
+        <v>182</v>
       </c>
       <c r="C415" s="32" t="s">
-        <v>392</v>
+        <v>182</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -9352,13 +9289,13 @@
         <v>152</v>
       </c>
       <c r="B416" s="32" t="s">
-        <v>397</v>
+        <v>251</v>
       </c>
       <c r="C416" s="32" t="s">
-        <v>397</v>
+        <v>251</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -9366,13 +9303,13 @@
         <v>152</v>
       </c>
       <c r="B417" s="32" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C417" s="32" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -9380,13 +9317,13 @@
         <v>152</v>
       </c>
       <c r="B418" s="32" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C418" s="32" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -9394,13 +9331,13 @@
         <v>152</v>
       </c>
       <c r="B419" s="32" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="C419" s="32" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -9408,13 +9345,13 @@
         <v>152</v>
       </c>
       <c r="B420" s="32" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="C420" s="32" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -9422,13 +9359,13 @@
         <v>152</v>
       </c>
       <c r="B421" s="32" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C421" s="32" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -9436,13 +9373,13 @@
         <v>152</v>
       </c>
       <c r="B422" s="32" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="C422" s="32" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -9450,27 +9387,27 @@
         <v>152</v>
       </c>
       <c r="B423" s="32" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="C423" s="32" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B424" s="32">
-        <v>103</v>
-      </c>
-      <c r="C424" s="32">
-        <v>103</v>
+      <c r="B424" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="C424" s="32" t="s">
+        <v>412</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -9478,55 +9415,55 @@
         <v>152</v>
       </c>
       <c r="B425" s="32" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C425" s="32" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B426" s="32">
-        <v>130</v>
-      </c>
-      <c r="C426" s="32">
-        <v>130</v>
+      <c r="B426" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="C426" s="32" t="s">
+        <v>422</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B427" s="51">
-        <v>109</v>
-      </c>
-      <c r="C427" s="51">
-        <v>109</v>
+      <c r="B427" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C427" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B428" s="32">
-        <v>181</v>
-      </c>
-      <c r="C428" s="32">
-        <v>181</v>
+      <c r="B428" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C428" s="32" t="s">
+        <v>330</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9534,27 +9471,27 @@
         <v>152</v>
       </c>
       <c r="B429" s="32">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C429" s="32">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="430" spans="1:6">
       <c r="A430" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B430" s="32">
-        <v>169</v>
-      </c>
-      <c r="C430" s="32">
-        <v>169</v>
+      <c r="B430" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C430" s="32" t="s">
+        <v>437</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9562,27 +9499,27 @@
         <v>152</v>
       </c>
       <c r="B431" s="32">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C431" s="32">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B432" s="32">
-        <v>168</v>
-      </c>
-      <c r="C432" s="32">
-        <v>168</v>
+      <c r="B432" s="51">
+        <v>109</v>
+      </c>
+      <c r="C432" s="51">
+        <v>109</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9590,27 +9527,27 @@
         <v>152</v>
       </c>
       <c r="B433" s="32">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C433" s="32">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B434" s="41">
-        <v>155</v>
-      </c>
-      <c r="C434" s="41">
-        <v>155</v>
+      <c r="B434" s="32">
+        <v>116</v>
+      </c>
+      <c r="C434" s="32">
+        <v>116</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9618,13 +9555,13 @@
         <v>152</v>
       </c>
       <c r="B435" s="32">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="C435" s="32">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>696</v>
+        <v>456</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9632,27 +9569,27 @@
         <v>152</v>
       </c>
       <c r="B436" s="32">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C436" s="32">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B437" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="C437" s="32" t="s">
-        <v>476</v>
+      <c r="B437" s="32">
+        <v>168</v>
+      </c>
+      <c r="C437" s="32">
+        <v>168</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9660,27 +9597,27 @@
         <v>152</v>
       </c>
       <c r="B438" s="32">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C438" s="32">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B439" s="32">
-        <v>156</v>
-      </c>
-      <c r="C439" s="32">
-        <v>156</v>
+      <c r="B439" s="41">
+        <v>155</v>
+      </c>
+      <c r="C439" s="41">
+        <v>155</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9688,13 +9625,13 @@
         <v>152</v>
       </c>
       <c r="B440" s="32">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C440" s="32">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>486</v>
+        <v>696</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9702,27 +9639,27 @@
         <v>152</v>
       </c>
       <c r="B441" s="32">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C441" s="32">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B442" s="32">
-        <v>182</v>
-      </c>
-      <c r="C442" s="32">
-        <v>182</v>
+      <c r="B442" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="C442" s="32" t="s">
+        <v>476</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9730,13 +9667,13 @@
         <v>152</v>
       </c>
       <c r="B443" s="32">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="C443" s="32">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9744,41 +9681,41 @@
         <v>152</v>
       </c>
       <c r="B444" s="32">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="C444" s="32">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>697</v>
+        <v>483</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B445" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="C445" s="32" t="s">
-        <v>498</v>
+      <c r="B445" s="32">
+        <v>162</v>
+      </c>
+      <c r="C445" s="32">
+        <v>162</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B446" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="C446" s="32" t="s">
-        <v>226</v>
+      <c r="B446" s="32">
+        <v>175</v>
+      </c>
+      <c r="C446" s="32">
+        <v>175</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -9786,13 +9723,13 @@
         <v>152</v>
       </c>
       <c r="B447" s="32">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C447" s="32">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -9800,27 +9737,27 @@
         <v>152</v>
       </c>
       <c r="B448" s="32">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C448" s="32">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B449" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="C449" s="32" t="s">
-        <v>510</v>
+      <c r="B449" s="32">
+        <v>195</v>
+      </c>
+      <c r="C449" s="32">
+        <v>195</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>511</v>
+        <v>697</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -9828,55 +9765,55 @@
         <v>152</v>
       </c>
       <c r="B450" s="32" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C450" s="32" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B451" s="41">
-        <v>102</v>
-      </c>
-      <c r="C451" s="41">
-        <v>102</v>
+      <c r="B451" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C451" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B452" s="32" t="s">
-        <v>523</v>
-      </c>
-      <c r="C452" s="32" t="s">
-        <v>523</v>
+      <c r="B452" s="32">
+        <v>115</v>
+      </c>
+      <c r="C452" s="32">
+        <v>115</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B453" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C453" s="32" t="s">
-        <v>187</v>
+      <c r="B453" s="32">
+        <v>196</v>
+      </c>
+      <c r="C453" s="32">
+        <v>196</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -9884,13 +9821,13 @@
         <v>152</v>
       </c>
       <c r="B454" s="32" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="C454" s="32" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -9898,27 +9835,27 @@
         <v>152</v>
       </c>
       <c r="B455" s="32" t="s">
-        <v>217</v>
+        <v>514</v>
       </c>
       <c r="C455" s="32" t="s">
-        <v>217</v>
+        <v>514</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B456" s="32" t="s">
-        <v>537</v>
-      </c>
-      <c r="C456" s="32" t="s">
-        <v>537</v>
+      <c r="B456" s="41">
+        <v>102</v>
+      </c>
+      <c r="C456" s="41">
+        <v>102</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -9926,13 +9863,13 @@
         <v>152</v>
       </c>
       <c r="B457" s="32" t="s">
-        <v>162</v>
+        <v>523</v>
       </c>
       <c r="C457" s="32" t="s">
-        <v>162</v>
+        <v>523</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -9940,13 +9877,13 @@
         <v>152</v>
       </c>
       <c r="B458" s="32" t="s">
-        <v>543</v>
+        <v>187</v>
       </c>
       <c r="C458" s="32" t="s">
-        <v>543</v>
+        <v>187</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9954,13 +9891,13 @@
         <v>152</v>
       </c>
       <c r="B459" s="32" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="C459" s="32" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -9968,13 +9905,13 @@
         <v>152</v>
       </c>
       <c r="B460" s="32" t="s">
-        <v>552</v>
+        <v>217</v>
       </c>
       <c r="C460" s="32" t="s">
-        <v>552</v>
+        <v>217</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -9982,13 +9919,13 @@
         <v>152</v>
       </c>
       <c r="B461" s="32" t="s">
-        <v>197</v>
+        <v>537</v>
       </c>
       <c r="C461" s="32" t="s">
-        <v>197</v>
+        <v>537</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9996,13 +9933,13 @@
         <v>152</v>
       </c>
       <c r="B462" s="32" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C462" s="32" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -10010,13 +9947,13 @@
         <v>152</v>
       </c>
       <c r="B463" s="32" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="C463" s="32" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -10024,13 +9961,13 @@
         <v>152</v>
       </c>
       <c r="B464" s="32" t="s">
-        <v>336</v>
+        <v>548</v>
       </c>
       <c r="C464" s="32" t="s">
-        <v>336</v>
+        <v>548</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -10038,13 +9975,13 @@
         <v>152</v>
       </c>
       <c r="B465" s="32" t="s">
-        <v>346</v>
+        <v>552</v>
       </c>
       <c r="C465" s="32" t="s">
-        <v>346</v>
+        <v>552</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -10052,13 +9989,13 @@
         <v>152</v>
       </c>
       <c r="B466" s="32" t="s">
-        <v>572</v>
+        <v>197</v>
       </c>
       <c r="C466" s="32" t="s">
-        <v>572</v>
+        <v>197</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -10066,13 +10003,13 @@
         <v>152</v>
       </c>
       <c r="B467" s="32" t="s">
-        <v>392</v>
+        <v>192</v>
       </c>
       <c r="C467" s="32" t="s">
-        <v>392</v>
+        <v>192</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -10080,13 +10017,13 @@
         <v>152</v>
       </c>
       <c r="B468" s="32" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="C468" s="32" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -10094,13 +10031,13 @@
         <v>152</v>
       </c>
       <c r="B469" s="32" t="s">
-        <v>584</v>
+        <v>336</v>
       </c>
       <c r="C469" s="32" t="s">
-        <v>584</v>
+        <v>336</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -10108,13 +10045,13 @@
         <v>152</v>
       </c>
       <c r="B470" s="32" t="s">
-        <v>588</v>
+        <v>346</v>
       </c>
       <c r="C470" s="32" t="s">
-        <v>588</v>
+        <v>346</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -10122,13 +10059,13 @@
         <v>152</v>
       </c>
       <c r="B471" s="32" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="C471" s="32" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -10136,13 +10073,13 @@
         <v>152</v>
       </c>
       <c r="B472" s="32" t="s">
-        <v>596</v>
+        <v>392</v>
       </c>
       <c r="C472" s="32" t="s">
-        <v>596</v>
+        <v>392</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -10150,13 +10087,13 @@
         <v>152</v>
       </c>
       <c r="B473" s="32" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C473" s="32" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -10164,27 +10101,27 @@
         <v>152</v>
       </c>
       <c r="B474" s="32" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="C474" s="32" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
     </row>
     <row r="475" spans="1:6">
       <c r="A475" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B475" s="41" t="s">
-        <v>608</v>
-      </c>
-      <c r="C475" s="41" t="s">
-        <v>608</v>
+      <c r="B475" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="C475" s="32" t="s">
+        <v>588</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -10192,13 +10129,13 @@
         <v>152</v>
       </c>
       <c r="B476" s="32" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="C476" s="32" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -10206,13 +10143,13 @@
         <v>152</v>
       </c>
       <c r="B477" s="32" t="s">
-        <v>236</v>
+        <v>596</v>
       </c>
       <c r="C477" s="32" t="s">
-        <v>236</v>
+        <v>596</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -10220,13 +10157,13 @@
         <v>152</v>
       </c>
       <c r="B478" s="32" t="s">
-        <v>221</v>
+        <v>600</v>
       </c>
       <c r="C478" s="32" t="s">
-        <v>221</v>
+        <v>600</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -10234,27 +10171,27 @@
         <v>152</v>
       </c>
       <c r="B479" s="32" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="C479" s="32" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B480" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="C480" s="32" t="s">
-        <v>178</v>
+      <c r="B480" s="41" t="s">
+        <v>608</v>
+      </c>
+      <c r="C480" s="41" t="s">
+        <v>608</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -10262,13 +10199,13 @@
         <v>152</v>
       </c>
       <c r="B481" s="32" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="C481" s="32" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -10276,13 +10213,13 @@
         <v>152</v>
       </c>
       <c r="B482" s="32" t="s">
-        <v>633</v>
+        <v>236</v>
       </c>
       <c r="C482" s="32" t="s">
-        <v>633</v>
+        <v>236</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -10290,13 +10227,13 @@
         <v>152</v>
       </c>
       <c r="B483" s="32" t="s">
-        <v>637</v>
+        <v>221</v>
       </c>
       <c r="C483" s="32" t="s">
-        <v>637</v>
+        <v>221</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -10304,13 +10241,13 @@
         <v>152</v>
       </c>
       <c r="B484" s="32" t="s">
-        <v>246</v>
+        <v>622</v>
       </c>
       <c r="C484" s="32" t="s">
-        <v>246</v>
+        <v>622</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -10318,13 +10255,13 @@
         <v>152</v>
       </c>
       <c r="B485" s="32" t="s">
-        <v>643</v>
+        <v>178</v>
       </c>
       <c r="C485" s="32" t="s">
-        <v>643</v>
+        <v>178</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -10332,13 +10269,13 @@
         <v>152</v>
       </c>
       <c r="B486" s="32" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="C486" s="32" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -10346,13 +10283,13 @@
         <v>152</v>
       </c>
       <c r="B487" s="32" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="C487" s="32" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -10360,13 +10297,13 @@
         <v>152</v>
       </c>
       <c r="B488" s="32" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="C488" s="32" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -10374,13 +10311,13 @@
         <v>152</v>
       </c>
       <c r="B489" s="32" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C489" s="32" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -10388,13 +10325,13 @@
         <v>152</v>
       </c>
       <c r="B490" s="32" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="C490" s="32" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -10402,13 +10339,13 @@
         <v>152</v>
       </c>
       <c r="B491" s="32" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="C491" s="32" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10416,13 +10353,13 @@
         <v>152</v>
       </c>
       <c r="B492" s="32" t="s">
-        <v>437</v>
+        <v>651</v>
       </c>
       <c r="C492" s="32" t="s">
-        <v>437</v>
+        <v>651</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10430,13 +10367,13 @@
         <v>152</v>
       </c>
       <c r="B493" s="32" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="C493" s="32" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -10444,40 +10381,110 @@
         <v>152</v>
       </c>
       <c r="B494" s="32" t="s">
-        <v>677</v>
+        <v>226</v>
       </c>
       <c r="C494" s="32" t="s">
-        <v>677</v>
+        <v>226</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B495" s="32">
-        <v>103</v>
-      </c>
-      <c r="C495" s="32">
-        <v>103</v>
+      <c r="B495" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="C495" s="32" t="s">
+        <v>663</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B496" s="41">
+      <c r="B496" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="C496" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B497" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="C497" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B498" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="C498" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B499" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="C499" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B500" s="32">
+        <v>103</v>
+      </c>
+      <c r="C500" s="32">
+        <v>103</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B501" s="41">
         <v>102</v>
       </c>
-      <c r="C496" s="41">
+      <c r="C501" s="41">
         <v>102</v>
       </c>
-      <c r="F496" s="3" t="s">
+      <c r="F501" s="3" t="s">
         <v>685</v>
       </c>
     </row>
@@ -10499,7 +10506,7 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="55.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
     <col min="4" max="16384" width="11" style="3"/>
   </cols>
@@ -10520,10 +10527,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
@@ -10542,8 +10549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8701DA20-CB5E-4F2E-9F23-E54B3FF53026}">
   <dimension ref="A1:S426"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D138"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/LF/TAS/Nigeria/2024/june_2024/Jigawa/ng_lf_tas_2406_1_sit_part_jgw.xlsx
+++ b/LF/TAS/Nigeria/2024/june_2024/Jigawa/ng_lf_tas_2406_1_sit_part_jgw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\LF\TAS\Nigeria\2024\june_2024\Jigawa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99883CED-BF57-42C6-9F19-062CC756A2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F33928-0001-44EF-9D5B-249619D918C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2216,12 +2216,6 @@
     <t>c_src_water_school</t>
   </si>
   <si>
-    <t>ng_lf_tas_2406_1_sit_part_jgw_v3</t>
-  </si>
-  <si>
-    <t>ng_tas_p_2406_jgw_3</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -2235,6 +2229,12 @@
   </si>
   <si>
     <t>(June 2024) Jigawa - 1. TAS1 LF Site &amp; participant Form V3</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_2406_1_sit_part_jgw_v31</t>
+  </si>
+  <si>
+    <t>ng_tas_p_2406_jgw_31</t>
   </si>
 </sst>
 </file>
@@ -2889,11 +2889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3300,7 +3300,7 @@
       <c r="E16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5" t="s">
@@ -3315,7 +3315,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>723</v>
@@ -3348,7 +3348,7 @@
       <c r="E18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
@@ -3416,12 +3416,12 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:15" s="4" customFormat="1">
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="31.5">
       <c r="A22" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>79</v>
@@ -6583,10 +6583,10 @@
         <v>150</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>165</v>
@@ -6597,10 +6597,10 @@
         <v>150</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>689</v>
@@ -6611,10 +6611,10 @@
         <v>150</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>690</v>
@@ -6625,10 +6625,10 @@
         <v>150</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>691</v>
@@ -6639,10 +6639,10 @@
         <v>150</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>692</v>
@@ -10499,8 +10499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10527,10 +10527,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>51</v>
